--- a/data/dane1.xlsx
+++ b/data/dane1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="60">
   <si>
     <t xml:space="preserve">Gdańsk</t>
   </si>
@@ -191,6 +191,15 @@
   </si>
   <si>
     <t xml:space="preserve">Faro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poznań</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helsinki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenecja Marco Polo</t>
   </si>
 </sst>
 </file>
@@ -298,10 +307,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E110"/>
+  <dimension ref="A1:E114"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G112" activeCellId="0" sqref="G112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1336,7 +1345,7 @@
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
-        <v>43601</v>
+        <v>43611</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>22</v>
@@ -2165,6 +2174,74 @@
       </c>
       <c r="E110" s="2" t="n">
         <v>71.141041</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="n">
+        <v>44680</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D111" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="n">
+        <v>44682</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D112" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>23.25</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="n">
+        <v>44696</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D113" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="n">
+        <v>44699</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="D114" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
